--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-12476_RecursiveCompilation.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EPBDS-12476_RecursiveCompilation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\demo\openl-demo\user-workspace1\DEFAULT\GPLW Rating2\rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\openl-tablets\STUDIO\org.openl.rules.test\test-resources\functionality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989FC529-F0E7-44C2-8769-1C871CDA6BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E68EE16-3654-49D9-A733-A5406C248AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="1485" windowWidth="21600" windowHeight="12735" tabRatio="879" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4630" yWindow="3350" windowWidth="21550" windowHeight="15720" tabRatio="879" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Census" sheetId="10" r:id="rId1"/>
@@ -19,23 +19,15 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Steps</t>
   </si>
@@ -52,9 +44,6 @@
     <t>ageBand*</t>
   </si>
   <si>
-    <t>dependency</t>
-  </si>
-  <si>
     <t>Step</t>
   </si>
   <si>
@@ -88,48 +77,6 @@
     <t>ChildTermLife</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Spreadsheet SpreadsheetResult </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-      </rPr>
-      <t>AgeBandedSalaryByCensus</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.499984740745262"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-      </rPr>
-      <t>( CoverageType coverageType, AgeBandName currentAgeBand, SpreadsheetResultCensusCalculation[] calculatedCensusEmployees )</t>
-    </r>
-  </si>
-  <si>
-    <t>Whole Life Lookups-CW-20010101-20010101</t>
-  </si>
-  <si>
     <t>String calculatedCensusEmployees</t>
   </si>
   <si>
@@ -142,97 +89,16 @@
     <t>444</t>
   </si>
   <si>
-    <t>AgeBandedSalaryByCensus ( calculatedCoverage.$coverageType, getValues (AgeBandName), new SpreadsheetResultCensusCalculation[] {})</t>
-  </si>
-  <si>
-    <t>Rules SpreadsheetResult[] DemographicSalaryByAgeBands ( SpreadsheetResult calculatedCoverage )</t>
-  </si>
-  <si>
     <t>new SpreadsheetResult()</t>
   </si>
   <si>
     <t>= "vvv"</t>
   </si>
   <si>
-    <t>= new CoverageType()</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-      </rPr>
-      <t>Rules SpreadsheetResult</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> D</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-      </rPr>
-      <t>emographicSummary</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">( SpreadsheetResult calculatedCoverage </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
     <t>true</t>
   </si>
   <si>
     <t>= 100</t>
-  </si>
-  <si>
-    <t>//Environment</t>
   </si>
   <si>
     <r>
@@ -262,81 +128,6 @@
     <t>WaiverOfPremium</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Datatype </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-      </rPr>
-      <t>AgeBandName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Franklin Gothic Book"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> &lt;String&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t>&lt;25</t>
-  </si>
-  <si>
-    <t>25 - 29</t>
-  </si>
-  <si>
-    <t>30 - 34</t>
-  </si>
-  <si>
-    <t>35 - 39</t>
-  </si>
-  <si>
-    <t>40 - 44</t>
-  </si>
-  <si>
-    <t>45 - 49</t>
-  </si>
-  <si>
-    <t>50 - 54</t>
-  </si>
-  <si>
-    <t>55 - 59</t>
-  </si>
-  <si>
-    <t>60 - 64</t>
-  </si>
-  <si>
-    <t>65 - 69</t>
-  </si>
-  <si>
-    <t>70 - 74</t>
-  </si>
-  <si>
-    <t>75 - 79</t>
-  </si>
-  <si>
-    <t>80+</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult CensusCalculation (  Date policyEffectiveDate, SpreadsheetResult[] calculatedLifeEmployees, Double specialMix, Double assumedParticipationPct)</t>
-  </si>
-  <si>
-    <t>AgeBandedSalaryByCensus ( calculatedCoverage.$coverageType, getValues (AgeBandName))</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult AgeBandedSalaryByCensus ( CoverageType coverageType, AgeBandName currentAgeBand )</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult someSpr(  Date policyEffectiveDate, SpreadsheetResult[] calculatedLifeEmployees, Double specialMix, Double assumedParticipationPct)</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult someSpr(  )</t>
   </si>
   <si>
@@ -346,15 +137,6 @@
     <t>Rules SpreadsheetResult Spr2( SpreadsheetResult calculatedCoverage  )</t>
   </si>
   <si>
-    <t>AgeBandedSalaryByCensus ( calculatedCoverage.$coverageType, "test")</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult AgeBandedSalaryByCensus ( CoverageType coverageType, StringcurrentAgeBand )</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult AgeBandedSalaryByCensus ( CoverageType coverageType, String currentAgeBand )</t>
-  </si>
-  <si>
     <t>Spreadsheet SpreadsheetResult CalledSpr( CoverageType coverageType, String currentAgeBand )</t>
   </si>
   <si>
@@ -362,14 +144,16 @@
   </si>
   <si>
     <t>String someValue</t>
+  </si>
+  <si>
+    <t>= (CoverageType) "WholeLife"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -379,14 +163,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
@@ -397,7 +181,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262" rgb="FFFFFF"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
@@ -415,7 +199,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <charset val="204"/>
@@ -429,41 +213,14 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1" rgb="000000"/>
+      <color theme="1"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0" tint="-0.499984740745262" rgb="FFFFFF"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Franklin Gothic Book"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.34998626667073579"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
       <charset val="204"/>
@@ -478,49 +235,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" rgb="FFFFFF"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485" rgb="5B9BD5"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442" rgb="5B9BD5"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2" rgb="E7E6E6"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921" rgb="5B9BD5"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14996795556505021" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-0.14996795556505021"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59996337778862885" rgb="5B9BD5"/>
+        <fgColor theme="4" tint="0.59996337778862885"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579" rgb="FFFFFF"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -608,33 +365,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -642,17 +383,10 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -660,8 +394,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -671,11 +403,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -696,7 +427,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -705,10 +436,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -717,16 +448,8 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,17 +475,14 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,152 +764,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4001C4-76C5-41AA-B960-CB0FEEF83C62}">
-  <dimension ref="B3:H28"/>
+  <dimension ref="D3:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="2" width="8.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="12" width="6.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="2" width="21.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="2" width="25.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="2" width="95.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="2" width="40.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="2" width="9.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="2" width="21.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="2" width="70.5703125" collapsed="true"/>
-    <col min="10" max="16384" style="2" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="8.81640625" style="2" collapsed="1"/>
+    <col min="2" max="2" width="6.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.1796875" style="2" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.453125" style="2" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="95.1796875" style="2" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="40.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="9.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.81640625" style="2" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="70.54296875" style="2" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="8.81640625" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="3"/>
-      <c r="D3" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="54"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-    </row>
-    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="D4" s="23" t="s">
+    <row r="3" spans="4:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D3" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="39"/>
+      <c r="F3"/>
+      <c r="G3"/>
+    </row>
+    <row r="4" spans="4:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
-      <c r="D5" s="17" t="s">
+      <c r="F4"/>
+      <c r="G4"/>
+    </row>
+    <row r="5" spans="4:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13"/>
-      <c r="D6" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G15" s="4"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G17" s="18"/>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5"/>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="4:8" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="4:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G15" s="3"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D20" s="9"/>
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D21" s="15"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="16"/>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D23" s="16"/>
-      <c r="E23" s="21"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D24" s="16"/>
-      <c r="E24" s="14"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D25" s="16"/>
-      <c r="E25" s="14"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D26" s="16"/>
-      <c r="E26" s="14"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D27" s="16"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D28" s="19"/>
-      <c r="E28" s="7"/>
+    <row r="19" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+    </row>
+    <row r="20" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D20" s="8"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D21" s="10"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D22" s="11"/>
+      <c r="E22" s="13"/>
+    </row>
+    <row r="23" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D23" s="11"/>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D24" s="11"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D25" s="11"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D26" s="11"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D27" s="11"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="4:8" x14ac:dyDescent="0.35">
+      <c r="D28" s="12"/>
+      <c r="E28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1205,231 +920,216 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCF0B65-5F6D-419F-B799-FA4F925EE914}">
   <dimension ref="A3:D95"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="13.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" style="43" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="43" width="46.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="43" width="66.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="43" width="42.7109375" collapsed="true"/>
-    <col min="6" max="7" style="43" width="8.7109375" collapsed="true"/>
-    <col min="8" max="9" style="43" width="8.7109375" collapsed="true"/>
-    <col min="10" max="16384" style="43" width="8.7109375" collapsed="true"/>
+    <col min="1" max="2" width="8.7265625" style="32" collapsed="1"/>
+    <col min="3" max="3" width="46.81640625" style="32" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="66.1796875" style="32" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="42.7265625" style="32" customWidth="1" collapsed="1"/>
+    <col min="6" max="16384" width="8.7265625" style="32" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="C23" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="60"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C24" s="28" t="s">
+    <row r="3" ht="27.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="33"/>
+      <c r="C23" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="45"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="42.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C27" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="49" t="s">
+      <c r="D28" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C29" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C30" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C31" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C35" s="35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="33"/>
+      <c r="C36" s="36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C37" s="37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C38" s="37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C39" s="37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C40" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="44.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="57" ht="27.65" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" ht="28" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="73" spans="1:1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="33"/>
+    </row>
+    <row r="81" spans="3:4" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C81" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="D81" s="44"/>
+    </row>
+    <row r="82" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C82" s="18" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="28" t="s">
+      <c r="D82" s="30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C83" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C84" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C85" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="47" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="31" t="s">
+    </row>
+    <row r="86" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C86" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C87" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C88" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88" s="41" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C27" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C28" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D28" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C29" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C30" s="34" t="s">
+    <row r="89" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C89" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C31" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="48" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C35" s="50" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="C36" s="51" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="52" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="52" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="53" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:3" ht="44.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="3:3" ht="27.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="3:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="44"/>
-    </row>
-    <row r="81" spans="3:4" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="D81" s="59"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C82" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D82" s="41" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="3:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="C83" s="28" t="s">
+      <c r="D89" s="42"/>
+    </row>
+    <row r="93" spans="3:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C93" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="D83" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C84" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C85" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C86" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C87" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" s="35" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C88" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="D88" s="56" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C89" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="57"/>
-    </row>
-    <row r="93" spans="3:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C93" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D93" s="59"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C94" s="37" t="s">
-        <v>6</v>
-      </c>
-      <c r="D94" s="38" t="s">
+      <c r="D93" s="44"/>
+    </row>
+    <row r="94" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C94" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="27" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="30" t="s">
+    <row r="95" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C95" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D95" s="39" t="s">
-        <v>30</v>
+      <c r="D95" s="28" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1451,27 +1151,25 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="10" width="8.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="10" width="16.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="10" width="38.5703125" collapsed="true"/>
-    <col min="4" max="16384" style="10" width="8.85546875" collapsed="true"/>
+    <col min="1" max="1" width="8.81640625" collapsed="1"/>
+    <col min="2" max="2" width="16.54296875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="38.54296875" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="8.81640625" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9" s="24"/>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10" s="24"/>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
